--- a/Assets/Resources/Datas/SpawnDB.xlsx
+++ b/Assets/Resources/Datas/SpawnDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardHard\UnityProject\Creative\Assets\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HardHard\UnityProject\Creative\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +63,10 @@
   </si>
   <si>
     <t>Gangster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹티스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +403,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -416,27 +416,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -494,7 +494,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>3</v>
